--- a/Documentation/projectexample.xlsx
+++ b/Documentation/projectexample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spartan117\Desktop\CS480-DATABASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28EA56B-39D6-4893-BF5E-7251A8BB4D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016EF74-E8EC-4046-AA52-89CDFFFF1B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{183A8236-4404-4FD7-965A-91C74B3999E8}"/>
   </bookViews>
@@ -135,21 +135,12 @@
     <t>doses_taken</t>
   </si>
   <si>
-    <t>City (FK)</t>
-  </si>
-  <si>
-    <t>State(FK)</t>
-  </si>
-  <si>
     <t>ID (PK)</t>
   </si>
   <si>
     <t>SSN (PK)</t>
   </si>
   <si>
-    <t>State (FK)</t>
-  </si>
-  <si>
     <t>vaccine_id (FK)</t>
   </si>
   <si>
@@ -174,13 +165,22 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>SSN (FK)</t>
-  </si>
-  <si>
     <t>covid_19_development</t>
   </si>
   <si>
     <t>CS480 DATABASE PROJECT</t>
+  </si>
+  <si>
+    <t>State_id (FK)</t>
+  </si>
+  <si>
+    <t>City_id (FK)</t>
+  </si>
+  <si>
+    <t>City_id  (FK)</t>
+  </si>
+  <si>
+    <t>patient_SSN (FK)</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="C3:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
   <sheetData>
     <row r="3" spans="3:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -623,22 +623,22 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>18</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>3</v>
@@ -774,20 +774,20 @@
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>0</v>
@@ -870,12 +870,12 @@
         <v>30</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>31</v>
@@ -884,28 +884,28 @@
         <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -937,10 +937,10 @@
         <v>43896</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>2323</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -972,10 +972,10 @@
         <v>43957</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P28" s="1">
-        <v>2</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>5656</v>
       </c>
       <c r="K29" s="1">
         <v>3</v>
@@ -1007,10 +1007,10 @@
         <v>43988</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P29" s="1">
-        <v>3</v>
+        <v>5656</v>
       </c>
     </row>
   </sheetData>
